--- a/doc/quis.xlsx
+++ b/doc/quis.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\digfree dev\myweb\MathShogun\doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6987DA06-4FFA-4BDC-8A88-DAFE1068B075}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E74D6575-D306-4BA5-B18F-7726D98EFF50}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -87,7 +81,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -148,7 +142,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -166,7 +159,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -184,7 +176,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -202,7 +193,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -220,7 +210,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -238,7 +227,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -256,9 +244,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="id-ID"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -300,6 +288,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -308,26 +297,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -351,7 +320,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-6780-4766-BDC4-B440FEA317B7}"/>
               </c:ext>
@@ -371,7 +340,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-6780-4766-BDC4-B440FEA317B7}"/>
               </c:ext>
@@ -391,7 +360,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-6780-4766-BDC4-B440FEA317B7}"/>
               </c:ext>
@@ -411,7 +380,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-6780-4766-BDC4-B440FEA317B7}"/>
               </c:ext>
@@ -431,12 +400,40 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000009-6780-4766-BDC4-B440FEA317B7}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$I$1:$M$1</c:f>
@@ -484,7 +481,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C0AB-47C8-A046-58FD59EFA38C}"/>
             </c:ext>
@@ -511,6 +508,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -536,7 +534,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="id-ID"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -566,7 +564,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="id-ID"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -578,9 +576,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="id-ID"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -616,12 +614,17 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Efek Tebasan</a:t>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="id-ID" baseline="0"/>
+              <a:t>Animasi Serangan</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -630,26 +633,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -673,7 +656,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-B02B-43FE-8834-A2B4595500E9}"/>
               </c:ext>
@@ -693,7 +676,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-B02B-43FE-8834-A2B4595500E9}"/>
               </c:ext>
@@ -713,7 +696,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-B02B-43FE-8834-A2B4595500E9}"/>
               </c:ext>
@@ -733,7 +716,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-B02B-43FE-8834-A2B4595500E9}"/>
               </c:ext>
@@ -753,12 +736,21 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000009-B02B-43FE-8834-A2B4595500E9}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$P$1:$T$1</c:f>
@@ -806,7 +798,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000A-B02B-43FE-8834-A2B4595500E9}"/>
             </c:ext>
@@ -833,6 +825,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -858,7 +851,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="id-ID"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -888,7 +881,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="id-ID"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -900,9 +893,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="id-ID"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -938,12 +931,17 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Level Kesulitan</a:t>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="id-ID" baseline="0"/>
+              <a:t>Animasi Naik Level</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -952,26 +950,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -995,7 +973,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-C081-44FC-ACB0-E337E4C161FC}"/>
               </c:ext>
@@ -1015,7 +993,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-C081-44FC-ACB0-E337E4C161FC}"/>
               </c:ext>
@@ -1035,7 +1013,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-C081-44FC-ACB0-E337E4C161FC}"/>
               </c:ext>
@@ -1055,7 +1033,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-C081-44FC-ACB0-E337E4C161FC}"/>
               </c:ext>
@@ -1075,12 +1053,21 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000009-C081-44FC-ACB0-E337E4C161FC}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$P$1:$T$1</c:f>
@@ -1128,7 +1115,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000A-C081-44FC-ACB0-E337E4C161FC}"/>
             </c:ext>
@@ -1155,6 +1142,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1180,7 +1168,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="id-ID"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1210,7 +1198,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="id-ID"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1222,9 +1210,9 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="id-ID"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1266,6 +1254,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1274,26 +1263,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1317,7 +1286,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-60E1-4B16-9482-467239A6FC65}"/>
               </c:ext>
@@ -1337,7 +1306,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-60E1-4B16-9482-467239A6FC65}"/>
               </c:ext>
@@ -1357,7 +1326,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-60E1-4B16-9482-467239A6FC65}"/>
               </c:ext>
@@ -1377,7 +1346,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-60E1-4B16-9482-467239A6FC65}"/>
               </c:ext>
@@ -1397,7 +1366,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000009-60E1-4B16-9482-467239A6FC65}"/>
               </c:ext>
@@ -1450,7 +1419,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000A-60E1-4B16-9482-467239A6FC65}"/>
             </c:ext>
@@ -1477,6 +1446,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1502,7 +1472,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="id-ID"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1532,7 +1502,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="id-ID"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1544,9 +1514,9 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="id-ID"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1588,6 +1558,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1596,26 +1567,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1639,7 +1590,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-24D8-49E8-8BD6-234738DA6820}"/>
               </c:ext>
@@ -1659,7 +1610,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-24D8-49E8-8BD6-234738DA6820}"/>
               </c:ext>
@@ -1679,7 +1630,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-24D8-49E8-8BD6-234738DA6820}"/>
               </c:ext>
@@ -1699,7 +1650,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-24D8-49E8-8BD6-234738DA6820}"/>
               </c:ext>
@@ -1719,17 +1670,40 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000009-24D8-49E8-8BD6-234738DA6820}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$P$1:$T$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>sangat tidak suka</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>tidak suka</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cukup suka</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>suka</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sangat suka</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$6:$M$6</c:f>
+              <c:f>Sheet1!$P$6:$T$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1741,15 +1715,15 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000A-24D8-49E8-8BD6-234738DA6820}"/>
             </c:ext>
@@ -1776,6 +1750,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1801,7 +1776,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="id-ID"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1831,7 +1806,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="id-ID"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4657,7 +4632,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A3E39D0-2149-46B2-B324-08DF0F51BE6E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6A3E39D0-2149-46B2-B324-08DF0F51BE6E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4693,7 +4668,7 @@
         <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AE801BD-61B5-417B-8633-25BDA845AD6A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6AE801BD-61B5-417B-8633-25BDA845AD6A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4731,7 +4706,7 @@
         <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{889DA4E5-12D6-4D2C-A8C4-8A7CD378947D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{889DA4E5-12D6-4D2C-A8C4-8A7CD378947D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4769,7 +4744,7 @@
         <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72A653F6-B769-4A1F-992D-58F89B4B0625}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{72A653F6-B769-4A1F-992D-58F89B4B0625}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4807,7 +4782,7 @@
         <xdr:cNvPr id="9" name="Chart 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B71F9357-53BF-4BC6-8506-6E6E324B57A9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B71F9357-53BF-4BC6-8506-6E6E324B57A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4831,55 +4806,55 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5CAF333B-F658-4B83-9EB6-784A07521606}" name="Table1" displayName="Table1" ref="A1:F6" totalsRowShown="0">
-  <autoFilter ref="A1:F6" xr:uid="{452650E5-9C52-4AAC-83D1-714D8FDD6C78}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F6" totalsRowShown="0">
+  <autoFilter ref="A1:F6"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{373662C2-8F2F-4ABA-A26E-18C32BC833E0}" name="Nama"/>
-    <tableColumn id="2" xr3:uid="{CD773785-F8A8-4727-B709-28FED5A7CBC3}" name="Sulit"/>
-    <tableColumn id="3" xr3:uid="{9D87B87B-23F5-4701-8F75-8799089167C7}" name="luka"/>
-    <tableColumn id="4" xr3:uid="{3EBFF37A-7DB1-48AA-97B6-EDA47F207DC6}" name="level"/>
-    <tableColumn id="5" xr3:uid="{99F2DF95-BE2F-427B-AF7D-D17A5E8AC679}" name="akhir"/>
-    <tableColumn id="6" xr3:uid="{DE667FAC-0BE9-4058-9F06-071CAFB16C19}" name="jawab"/>
+    <tableColumn id="1" name="Nama"/>
+    <tableColumn id="2" name="Sulit"/>
+    <tableColumn id="3" name="luka"/>
+    <tableColumn id="4" name="level"/>
+    <tableColumn id="5" name="akhir"/>
+    <tableColumn id="6" name="jawab"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DC5F5CA1-2D02-4FB0-9A74-368D8F9EC039}" name="Table2" displayName="Table2" ref="H1:M6" totalsRowShown="0">
-  <autoFilter ref="H1:M6" xr:uid="{55AEEEF6-279D-4C80-89D5-4F458F6A142D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="H1:M6" totalsRowShown="0">
+  <autoFilter ref="H1:M6"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{C5150227-6B34-4273-AA43-49E25CF6EEDE}" name="var"/>
-    <tableColumn id="2" xr3:uid="{E4C3AE53-4BB9-4C5A-9312-D6D11251A7E3}" name="sangat tidak suka"/>
-    <tableColumn id="3" xr3:uid="{BA5A5329-AB50-4EFD-8B30-75B2DADC7DA6}" name="tidak suka"/>
-    <tableColumn id="4" xr3:uid="{57F4BA52-6C71-4776-A97E-D0F60FDD6D18}" name="cukup suka"/>
-    <tableColumn id="5" xr3:uid="{630FF509-B4C4-410B-89E2-CEB670773C8A}" name="suka"/>
-    <tableColumn id="6" xr3:uid="{CFA5B4A3-9798-4A3F-957C-7D5AD97FE5A0}" name="sangat suka"/>
+    <tableColumn id="1" name="var"/>
+    <tableColumn id="2" name="sangat tidak suka"/>
+    <tableColumn id="3" name="tidak suka"/>
+    <tableColumn id="4" name="cukup suka"/>
+    <tableColumn id="5" name="suka"/>
+    <tableColumn id="6" name="sangat suka"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BE42F342-863A-482F-A5A7-989F5F260DE2}" name="Table3" displayName="Table3" ref="O1:T6" totalsRowShown="0" dataDxfId="5" dataCellStyle="Percent">
-  <autoFilter ref="O1:T6" xr:uid="{80BF9F1A-4474-4CF0-9325-E0726550EB69}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="O1:T6" totalsRowShown="0" dataDxfId="5" dataCellStyle="Percent">
+  <autoFilter ref="O1:T6"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{35B23714-47D2-462A-A20B-DF9C9621816C}" name="var">
+    <tableColumn id="1" name="var">
       <calculatedColumnFormula>H2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{56B076A7-95AE-47F6-B992-E08C3D5AC8FA}" name="sangat tidak suka" dataDxfId="4" dataCellStyle="Percent">
+    <tableColumn id="2" name="sangat tidak suka" dataDxfId="4" dataCellStyle="Percent">
       <calculatedColumnFormula>(I2/5)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{49DB145F-136A-4B02-AC06-E90222154990}" name="tidak suka" dataDxfId="3" dataCellStyle="Percent">
+    <tableColumn id="3" name="tidak suka" dataDxfId="3" dataCellStyle="Percent">
       <calculatedColumnFormula>(J2/5)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{7695F4D6-FC2E-4964-8BB8-CD80DA7BFB6F}" name="cukup suka" dataDxfId="2" dataCellStyle="Percent">
+    <tableColumn id="4" name="cukup suka" dataDxfId="2" dataCellStyle="Percent">
       <calculatedColumnFormula>(K2/5)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{029A4A4E-E219-4BE8-9DE4-2E957D4F9161}" name="suka" dataDxfId="1" dataCellStyle="Percent">
+    <tableColumn id="5" name="suka" dataDxfId="1" dataCellStyle="Percent">
       <calculatedColumnFormula>(L2/5)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{8A007470-E210-4683-B8E3-8C5C784676B2}" name="sangat suka" dataDxfId="0" dataCellStyle="Percent">
+    <tableColumn id="6" name="sangat suka" dataDxfId="0" dataCellStyle="Percent">
       <calculatedColumnFormula>(M2/5)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5176,17 +5151,19 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C998C3B2-1F57-4C9F-B458-399B75438CA4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
